--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_12_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_12_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1487064.903761836</v>
+        <v>1448888.696461499</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1854862.008498281</v>
+        <v>1854862.008498283</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7903192.579699641</v>
+        <v>7903192.579699638</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8439121.66298941</v>
+        <v>8439121.662989408</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>94.07292716676906</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>207.5780775887427</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>133.6985447993647</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1508,13 +1508,13 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>114.9834438562306</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>201.0891638436807</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>279.4748809448643</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>97.73452726943211</v>
       </c>
     </row>
     <row r="15">
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>118.4504509876723</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.153722282826175</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.30347489665807</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>86.25910662333015</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>63.83402892023822</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,7 +1928,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1979,7 +1979,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888678</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T19" t="n">
-        <v>22.35153719005456</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -2086,13 +2086,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>254.5907626076383</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -2140,16 +2140,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>258.0477280298105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883149</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2177,10 +2177,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>15.67129869336544</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2283,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>54.47555601903363</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>343.5627205851364</v>
+        <v>330.5754487741079</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -2374,13 +2374,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.60620160013897</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>208.2691746069202</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>82.22678580453685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2757,19 +2757,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>52.52527498097923</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>118.2537958723258</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>410.8095096623801</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>253.7401594460185</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2994,25 +2994,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>54.47555601903363</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>122.0550130897019</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>392.3124976607927</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3170,7 +3170,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609189</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>59.72683757586842</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3231,16 +3231,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>118.0056219508402</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>23.22170188080599</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>350.1613512053581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>10.70611463921582</v>
       </c>
       <c r="E37" t="n">
-        <v>48.03644161695777</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3468,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>121.8447941821669</v>
+        <v>36.31606325004064</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -3590,7 +3590,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3641,7 +3641,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494245</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>90.04875807993753</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3705,19 +3705,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>127.0044127072327</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>71.78218792062754</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>263.6793333657692</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>50.770262995641</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3827,7 +3827,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>148.337989799988</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>148.635332346445</v>
       </c>
       <c r="W43" t="n">
-        <v>15.24537842269836</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>197.2328983659995</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>227.8506451037455</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4061,16 +4061,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>122.7553710658865</v>
       </c>
       <c r="E45" t="n">
-        <v>152.486122354637</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>104.3883541553076</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4121,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4146,19 +4146,19 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>52.14009002653033</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>1.707323882823381</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1088.935358876208</v>
+        <v>951.8888122726996</v>
       </c>
       <c r="C11" t="n">
-        <v>1088.935358876208</v>
+        <v>582.926295332288</v>
       </c>
       <c r="D11" t="n">
-        <v>1088.935358876208</v>
+        <v>582.926295332288</v>
       </c>
       <c r="E11" t="n">
-        <v>703.1471062779635</v>
+        <v>197.1380427340438</v>
       </c>
       <c r="F11" t="n">
-        <v>292.161201488356</v>
+        <v>197.1380427340438</v>
       </c>
       <c r="G11" t="n">
-        <v>292.161201488356</v>
+        <v>197.1380427340438</v>
       </c>
       <c r="H11" t="n">
         <v>197.1380427340438</v>
       </c>
       <c r="I11" t="n">
-        <v>43.67206672913341</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="J11" t="n">
         <v>159.4399229620831</v>
       </c>
       <c r="K11" t="n">
-        <v>363.9004969167061</v>
+        <v>453.6907339820816</v>
       </c>
       <c r="L11" t="n">
-        <v>367.736672560855</v>
+        <v>871.0115120311764</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6929927188905</v>
+        <v>906.9494340313076</v>
       </c>
       <c r="N11" t="n">
-        <v>1322.799691415622</v>
+        <v>1381.056132728039</v>
       </c>
       <c r="O11" t="n">
-        <v>1725.297565081137</v>
+        <v>1783.554006393554</v>
       </c>
       <c r="P11" t="n">
-        <v>2031.1458052297</v>
+        <v>2089.402246542117</v>
       </c>
       <c r="Q11" t="n">
         <v>2183.60333645667</v>
@@ -5068,25 +5068,25 @@
         <v>2183.60333645667</v>
       </c>
       <c r="S11" t="n">
-        <v>2183.60333645667</v>
+        <v>2007.42584877084</v>
       </c>
       <c r="T11" t="n">
-        <v>2183.60333645667</v>
+        <v>1788.791181742903</v>
       </c>
       <c r="U11" t="n">
-        <v>2183.60333645667</v>
+        <v>1535.029396380994</v>
       </c>
       <c r="V11" t="n">
-        <v>1852.540449113099</v>
+        <v>1325.354570533779</v>
       </c>
       <c r="W11" t="n">
-        <v>1852.540449113099</v>
+        <v>1325.354570533779</v>
       </c>
       <c r="X11" t="n">
-        <v>1479.07469085202</v>
+        <v>951.8888122726996</v>
       </c>
       <c r="Y11" t="n">
-        <v>1088.935358876208</v>
+        <v>951.8888122726996</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>734.8741650970602</v>
+        <v>964.3416856154745</v>
       </c>
       <c r="C12" t="n">
-        <v>560.4211358159332</v>
+        <v>789.8886563343475</v>
       </c>
       <c r="D12" t="n">
-        <v>411.4867261546819</v>
+        <v>654.839621183474</v>
       </c>
       <c r="E12" t="n">
-        <v>252.2492711492264</v>
+        <v>495.6021661780185</v>
       </c>
       <c r="F12" t="n">
-        <v>105.7147131761114</v>
+        <v>349.0676082049034</v>
       </c>
       <c r="G12" t="n">
-        <v>105.7147131761114</v>
+        <v>211.1574951511695</v>
       </c>
       <c r="H12" t="n">
         <v>105.7147131761114</v>
       </c>
       <c r="I12" t="n">
-        <v>43.67206672913341</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="J12" t="n">
         <v>118.9292291292632</v>
       </c>
       <c r="K12" t="n">
-        <v>227.2091988027646</v>
+        <v>374.1765495703617</v>
       </c>
       <c r="L12" t="n">
-        <v>631.8251168984365</v>
+        <v>778.7924676660336</v>
       </c>
       <c r="M12" t="n">
-        <v>1155.972030456467</v>
+        <v>1302.939381224065</v>
       </c>
       <c r="N12" t="n">
-        <v>1235.149615955901</v>
+        <v>1382.116966723498</v>
       </c>
       <c r="O12" t="n">
         <v>1675.285538976244</v>
@@ -5153,19 +5153,19 @@
         <v>1776.33844563519</v>
       </c>
       <c r="U12" t="n">
-        <v>1548.16882160603</v>
+        <v>1548.168821606029</v>
       </c>
       <c r="V12" t="n">
-        <v>1313.016713374287</v>
+        <v>1548.168821606029</v>
       </c>
       <c r="W12" t="n">
-        <v>1058.779356646085</v>
+        <v>1548.168821606029</v>
       </c>
       <c r="X12" t="n">
-        <v>942.6344638620142</v>
+        <v>1340.317321400496</v>
       </c>
       <c r="Y12" t="n">
-        <v>734.8741650970602</v>
+        <v>1132.557022635543</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>139.2672887328105</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="C13" t="n">
-        <v>139.2672887328105</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="D13" t="n">
-        <v>139.2672887328105</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="E13" t="n">
-        <v>43.67206672913341</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="F13" t="n">
-        <v>43.67206672913341</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="G13" t="n">
-        <v>43.67206672913341</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="H13" t="n">
-        <v>43.67206672913341</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="I13" t="n">
-        <v>43.67206672913341</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="J13" t="n">
-        <v>43.67206672913341</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="K13" t="n">
-        <v>99.97425979540155</v>
+        <v>99.97425979540154</v>
       </c>
       <c r="L13" t="n">
-        <v>227.54811735656</v>
+        <v>227.5481173565599</v>
       </c>
       <c r="M13" t="n">
         <v>372.4459860745899</v>
@@ -5232,19 +5232,19 @@
         <v>717.8580691152032</v>
       </c>
       <c r="U13" t="n">
-        <v>428.6844587697711</v>
+        <v>514.7377015963337</v>
       </c>
       <c r="V13" t="n">
-        <v>428.6844587697711</v>
+        <v>514.7377015963337</v>
       </c>
       <c r="W13" t="n">
-        <v>139.2672887328105</v>
+        <v>225.3205315593731</v>
       </c>
       <c r="X13" t="n">
-        <v>139.2672887328105</v>
+        <v>225.3205315593731</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.2672887328105</v>
+        <v>225.3205315593731</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1071.128454335211</v>
+        <v>1690.069437026305</v>
       </c>
       <c r="C14" t="n">
-        <v>1071.128454335211</v>
+        <v>1321.106920085893</v>
       </c>
       <c r="D14" t="n">
-        <v>788.8305947949436</v>
+        <v>1321.106920085893</v>
       </c>
       <c r="E14" t="n">
-        <v>788.8305947949436</v>
+        <v>935.3186674876486</v>
       </c>
       <c r="F14" t="n">
-        <v>788.8305947949436</v>
+        <v>524.3327626980409</v>
       </c>
       <c r="G14" t="n">
-        <v>370.8667866931306</v>
+        <v>524.3327626980409</v>
       </c>
       <c r="H14" t="n">
-        <v>43.67206672913341</v>
+        <v>197.1380427340438</v>
       </c>
       <c r="I14" t="n">
-        <v>43.67206672913341</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="J14" t="n">
         <v>159.4399229620831</v>
@@ -5287,16 +5287,16 @@
         <v>871.0115120311764</v>
       </c>
       <c r="M14" t="n">
-        <v>1351.967832189212</v>
+        <v>1281.666447886755</v>
       </c>
       <c r="N14" t="n">
-        <v>1475.257222642592</v>
+        <v>1322.799691415622</v>
       </c>
       <c r="O14" t="n">
-        <v>1877.755096308107</v>
+        <v>1725.297565081137</v>
       </c>
       <c r="P14" t="n">
-        <v>2183.60333645667</v>
+        <v>2031.1458052297</v>
       </c>
       <c r="Q14" t="n">
         <v>2183.60333645667</v>
@@ -5314,16 +5314,16 @@
         <v>1788.791181742903</v>
       </c>
       <c r="V14" t="n">
-        <v>1457.728294399332</v>
+        <v>1788.791181742903</v>
       </c>
       <c r="W14" t="n">
-        <v>1457.728294399332</v>
+        <v>1788.791181742903</v>
       </c>
       <c r="X14" t="n">
-        <v>1457.728294399332</v>
+        <v>1788.791181742903</v>
       </c>
       <c r="Y14" t="n">
-        <v>1457.728294399332</v>
+        <v>1690.069437026305</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>516.92950812974</v>
+        <v>643.1675576755983</v>
       </c>
       <c r="C15" t="n">
-        <v>516.92950812974</v>
+        <v>468.7145283944714</v>
       </c>
       <c r="D15" t="n">
-        <v>516.92950812974</v>
+        <v>468.7145283944714</v>
       </c>
       <c r="E15" t="n">
-        <v>357.6920531242845</v>
+        <v>349.0676082049034</v>
       </c>
       <c r="F15" t="n">
-        <v>211.1574951511695</v>
+        <v>349.0676082049034</v>
       </c>
       <c r="G15" t="n">
         <v>211.1574951511695</v>
@@ -5354,55 +5354,55 @@
         <v>105.7147131761114</v>
       </c>
       <c r="I15" t="n">
-        <v>43.67206672913341</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="J15" t="n">
         <v>118.9292291292632</v>
       </c>
       <c r="K15" t="n">
-        <v>374.1765495703618</v>
+        <v>374.1765495703617</v>
       </c>
       <c r="L15" t="n">
-        <v>778.7924676660336</v>
+        <v>631.825116898436</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.939381224065</v>
+        <v>1155.972030456467</v>
       </c>
       <c r="N15" t="n">
-        <v>1722.500740775035</v>
+        <v>1235.1496159559</v>
       </c>
       <c r="O15" t="n">
-        <v>2162.636663795379</v>
+        <v>1675.285538976244</v>
       </c>
       <c r="P15" t="n">
-        <v>2183.60333645667</v>
+        <v>2011.530352591073</v>
       </c>
       <c r="Q15" t="n">
         <v>2183.60333645667</v>
       </c>
       <c r="R15" t="n">
-        <v>2175.367253342704</v>
+        <v>2133.389965868495</v>
       </c>
       <c r="S15" t="n">
-        <v>2017.19428098662</v>
+        <v>1975.216993512411</v>
       </c>
       <c r="T15" t="n">
-        <v>1818.315733109399</v>
+        <v>1776.33844563519</v>
       </c>
       <c r="U15" t="n">
-        <v>1590.146109080239</v>
+        <v>1548.168821606029</v>
       </c>
       <c r="V15" t="n">
-        <v>1354.994000848496</v>
+        <v>1313.016713374287</v>
       </c>
       <c r="W15" t="n">
-        <v>1100.756644120295</v>
+        <v>1058.779356646085</v>
       </c>
       <c r="X15" t="n">
-        <v>892.905143914762</v>
+        <v>850.9278564405522</v>
       </c>
       <c r="Y15" t="n">
-        <v>685.1448451498081</v>
+        <v>643.1675576755983</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.0131466573758</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="C16" t="n">
-        <v>247.0769637294689</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="D16" t="n">
-        <v>247.0769637294689</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="E16" t="n">
-        <v>247.0769637294689</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="F16" t="n">
-        <v>247.0769637294689</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="G16" t="n">
-        <v>247.0769637294689</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="H16" t="n">
-        <v>89.32859116199907</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="I16" t="n">
-        <v>89.32859116199907</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="J16" t="n">
-        <v>43.67206672913341</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="K16" t="n">
-        <v>99.97425979540155</v>
+        <v>99.97425979540154</v>
       </c>
       <c r="L16" t="n">
-        <v>227.54811735656</v>
+        <v>227.5481173565599</v>
       </c>
       <c r="M16" t="n">
         <v>372.4459860745899</v>
@@ -5466,22 +5466,22 @@
         <v>717.8580691152032</v>
       </c>
       <c r="T16" t="n">
-        <v>717.8580691152032</v>
+        <v>622.2628471115261</v>
       </c>
       <c r="U16" t="n">
-        <v>717.8580691152032</v>
+        <v>333.089236766094</v>
       </c>
       <c r="V16" t="n">
-        <v>717.8580691152032</v>
+        <v>333.089236766094</v>
       </c>
       <c r="W16" t="n">
-        <v>428.4408990782426</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="X16" t="n">
-        <v>428.4408990782426</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="Y16" t="n">
-        <v>428.4408990782426</v>
+        <v>43.6720667291334</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>833.8914035503838</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="C17" t="n">
-        <v>464.928886609972</v>
+        <v>1328.288804049172</v>
       </c>
       <c r="D17" t="n">
-        <v>464.928886609972</v>
+        <v>970.0231054424216</v>
       </c>
       <c r="E17" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T17" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2048.575150942547</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V17" t="n">
-        <v>1984.096333851397</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W17" t="n">
-        <v>1984.096333851397</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X17" t="n">
-        <v>1610.630575590317</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y17" t="n">
-        <v>1220.491243614505</v>
+        <v>1697.251320989584</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
         <v>665.1105362747051</v>
@@ -5591,7 +5591,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5606,13 +5606,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5630,7 +5630,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5697,28 +5697,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>365.6939024587809</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T19" t="n">
         <v>343.1165921657965</v>
       </c>
       <c r="U19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1380.123535465744</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="C20" t="n">
-        <v>1011.161018525332</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D20" t="n">
-        <v>1011.161018525332</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E20" t="n">
-        <v>625.3727659270879</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F20" t="n">
         <v>625.3727659270879</v>
@@ -5749,16 +5749,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,10 +5776,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T20" t="n">
         <v>2247.308246834948</v>
@@ -5788,16 +5788,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V20" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W20" t="n">
-        <v>1640.777806202926</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X20" t="n">
-        <v>1640.777806202926</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="Y20" t="n">
-        <v>1380.123535465744</v>
+        <v>1662.483574129469</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5837,19 +5837,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5870,10 +5870,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>69.77257646012751</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>69.77257646012751</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>69.77257646012751</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5931,31 +5931,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>336.2769833124028</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T22" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U22" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V22" t="n">
-        <v>108.9687959810045</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>69.77257646012751</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1504.400259589023</v>
+        <v>1216.807289433106</v>
       </c>
       <c r="C23" t="n">
-        <v>1504.400259589023</v>
+        <v>1216.807289433106</v>
       </c>
       <c r="D23" t="n">
-        <v>1146.134560982272</v>
+        <v>1216.807289433106</v>
       </c>
       <c r="E23" t="n">
-        <v>799.1015098861748</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F23" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T23" t="n">
         <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V23" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W23" t="n">
-        <v>1894.539591564834</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X23" t="n">
-        <v>1894.539591564834</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y23" t="n">
-        <v>1504.400259589023</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="24">
@@ -6044,73 +6044,73 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6171,28 +6171,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>535.9356573576496</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>308.6274700262513</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V25" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1226.657559460833</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C26" t="n">
-        <v>857.6950425204218</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D26" t="n">
-        <v>857.6950425204218</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E26" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2431.747497905361</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2177.985712543453</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>1846.922825199882</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859356</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="X26" t="n">
-        <v>1309.714918859356</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="Y26" t="n">
-        <v>1226.657559460833</v>
+        <v>1494.154169929768</v>
       </c>
     </row>
     <row r="27">
@@ -6281,73 +6281,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K27" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>204.0596212327002</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C28" t="n">
-        <v>204.0596212327002</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6405,31 +6405,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>257.1154545468206</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>204.0596212327002</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y28" t="n">
-        <v>204.0596212327002</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>994.3352828674997</v>
+        <v>1238.153685885793</v>
       </c>
       <c r="C29" t="n">
-        <v>625.3727659270879</v>
+        <v>1238.153685885793</v>
       </c>
       <c r="D29" t="n">
-        <v>625.3727659270879</v>
+        <v>879.8879872790428</v>
       </c>
       <c r="E29" t="n">
-        <v>625.3727659270879</v>
+        <v>879.8879872790428</v>
       </c>
       <c r="F29" t="n">
-        <v>625.3727659270879</v>
+        <v>468.9020824894353</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T29" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U29" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W29" t="n">
-        <v>1640.777806202926</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X29" t="n">
-        <v>1384.474614843311</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y29" t="n">
-        <v>994.3352828674997</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6642,31 +6642,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>53.94298182036445</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1330.912423534854</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C32" t="n">
-        <v>961.9499065944422</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D32" t="n">
-        <v>603.6842079876917</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E32" t="n">
-        <v>603.6842079876917</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F32" t="n">
-        <v>603.6842079876917</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T32" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U32" t="n">
-        <v>2048.575150942546</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V32" t="n">
-        <v>1717.512263598976</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W32" t="n">
-        <v>1717.512263598976</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X32" t="n">
-        <v>1717.512263598976</v>
+        <v>2092.477155601805</v>
       </c>
       <c r="Y32" t="n">
-        <v>1717.512263598976</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
         <v>2525.076107152625</v>
@@ -6818,10 +6818,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C34" t="n">
-        <v>204.0596212327002</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036444</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036444</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036444</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036444</v>
@@ -6879,31 +6879,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>431.3678085640985</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y34" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1208.982837814967</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="C35" t="n">
-        <v>1208.982837814967</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D35" t="n">
-        <v>850.7171392082162</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E35" t="n">
-        <v>464.928886609972</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6964,25 +6964,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2267.209817970484</v>
+        <v>2455.058159464219</v>
       </c>
       <c r="V35" t="n">
-        <v>1936.146930626913</v>
+        <v>2123.995272120648</v>
       </c>
       <c r="W35" t="n">
-        <v>1936.146930626913</v>
+        <v>1771.226616850534</v>
       </c>
       <c r="X35" t="n">
-        <v>1562.681172365833</v>
+        <v>1397.760858589454</v>
       </c>
       <c r="Y35" t="n">
-        <v>1208.982837814967</v>
+        <v>1397.760858589454</v>
       </c>
     </row>
     <row r="36">
@@ -7007,10 +7007,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7019,13 +7019,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>102.4646400193117</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="C37" t="n">
-        <v>102.4646400193117</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="D37" t="n">
-        <v>102.4646400193117</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
         <v>53.94298182036445</v>
@@ -7116,31 +7116,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>323.2572191628418</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U37" t="n">
-        <v>323.2572191628418</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V37" t="n">
-        <v>323.2572191628418</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W37" t="n">
-        <v>323.2572191628418</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X37" t="n">
-        <v>323.2572191628418</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y37" t="n">
-        <v>102.4646400193117</v>
+        <v>211.6471865296039</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>588.0044362889284</v>
+        <v>919.5755868835433</v>
       </c>
       <c r="C38" t="n">
-        <v>588.0044362889284</v>
+        <v>919.5755868835433</v>
       </c>
       <c r="D38" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T38" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W38" t="n">
-        <v>1364.743608328862</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X38" t="n">
-        <v>1364.743608328862</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="Y38" t="n">
-        <v>974.6042763530502</v>
+        <v>919.5755868835433</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
         <v>505.8730812692495</v>
@@ -7250,28 +7250,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7289,7 +7289,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>144.9013233152508</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>144.9013233152508</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>144.9013233152508</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>144.9013233152508</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7353,31 +7353,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>570.4247794971948</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S40" t="n">
-        <v>570.4247794971948</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T40" t="n">
-        <v>343.1165921657965</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U40" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V40" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>144.9013233152508</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1014.80383132574</v>
+        <v>942.2965707998541</v>
       </c>
       <c r="C41" t="n">
-        <v>1014.80383132574</v>
+        <v>942.2965707998541</v>
       </c>
       <c r="D41" t="n">
-        <v>1014.80383132574</v>
+        <v>942.2965707998541</v>
       </c>
       <c r="E41" t="n">
-        <v>1014.80383132574</v>
+        <v>942.2965707998541</v>
       </c>
       <c r="F41" t="n">
         <v>942.2965707998541</v>
@@ -7408,55 +7408,55 @@
         <v>197.1380427340438</v>
       </c>
       <c r="I41" t="n">
-        <v>43.67206672913341</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="J41" t="n">
         <v>159.4399229620831</v>
       </c>
       <c r="K41" t="n">
-        <v>159.4399229620831</v>
+        <v>453.6907339820816</v>
       </c>
       <c r="L41" t="n">
-        <v>576.760701011178</v>
+        <v>871.0115120311764</v>
       </c>
       <c r="M41" t="n">
-        <v>1057.717021169213</v>
+        <v>906.9494340313076</v>
       </c>
       <c r="N41" t="n">
-        <v>1531.823719865945</v>
+        <v>1381.056132728039</v>
       </c>
       <c r="O41" t="n">
-        <v>1934.32159353146</v>
+        <v>1783.554006393554</v>
       </c>
       <c r="P41" t="n">
-        <v>2031.1458052297</v>
+        <v>2031.145805229699</v>
       </c>
       <c r="Q41" t="n">
-        <v>2183.60333645667</v>
+        <v>2183.603336456669</v>
       </c>
       <c r="R41" t="n">
-        <v>2128.574646987163</v>
+        <v>2183.603336456669</v>
       </c>
       <c r="S41" t="n">
-        <v>1952.397159301333</v>
+        <v>2183.603336456669</v>
       </c>
       <c r="T41" t="n">
-        <v>1952.397159301333</v>
+        <v>2183.603336456669</v>
       </c>
       <c r="U41" t="n">
-        <v>1698.635373939425</v>
+        <v>1929.841551094761</v>
       </c>
       <c r="V41" t="n">
-        <v>1367.572486595855</v>
+        <v>1598.77866375119</v>
       </c>
       <c r="W41" t="n">
-        <v>1014.80383132574</v>
+        <v>1598.77866375119</v>
       </c>
       <c r="X41" t="n">
-        <v>1014.80383132574</v>
+        <v>1332.435902775666</v>
       </c>
       <c r="Y41" t="n">
-        <v>1014.80383132574</v>
+        <v>942.2965707998541</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>978.2270601258521</v>
+        <v>801.3405300316817</v>
       </c>
       <c r="C42" t="n">
-        <v>803.7740308447251</v>
+        <v>626.8875007505548</v>
       </c>
       <c r="D42" t="n">
-        <v>654.8396211834738</v>
+        <v>477.9530910893035</v>
       </c>
       <c r="E42" t="n">
-        <v>495.6021661780184</v>
+        <v>328.1167377559823</v>
       </c>
       <c r="F42" t="n">
-        <v>349.0676082049034</v>
+        <v>181.5821797828673</v>
       </c>
       <c r="G42" t="n">
-        <v>211.1574951511695</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="H42" t="n">
-        <v>105.7147131761114</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="I42" t="n">
-        <v>43.67206672913341</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="J42" t="n">
         <v>118.9292291292632</v>
       </c>
       <c r="K42" t="n">
-        <v>118.9292291292632</v>
+        <v>227.2091988027637</v>
       </c>
       <c r="L42" t="n">
-        <v>523.5451472249351</v>
+        <v>631.8251168984356</v>
       </c>
       <c r="M42" t="n">
-        <v>694.7077901828748</v>
+        <v>1155.972030456466</v>
       </c>
       <c r="N42" t="n">
-        <v>1235.149615955901</v>
+        <v>1235.1496159559</v>
       </c>
       <c r="O42" t="n">
         <v>1675.285538976244</v>
       </c>
       <c r="P42" t="n">
-        <v>2011.530352591073</v>
+        <v>2011.530352591072</v>
       </c>
       <c r="Q42" t="n">
-        <v>2183.60333645667</v>
+        <v>2183.603336456669</v>
       </c>
       <c r="R42" t="n">
-        <v>2133.389965868495</v>
+        <v>2133.389965868494</v>
       </c>
       <c r="S42" t="n">
-        <v>2133.389965868495</v>
+        <v>2133.389965868494</v>
       </c>
       <c r="T42" t="n">
-        <v>1934.511417991274</v>
+        <v>1934.511417991273</v>
       </c>
       <c r="U42" t="n">
-        <v>1934.511417991274</v>
+        <v>1706.341793962113</v>
       </c>
       <c r="V42" t="n">
-        <v>1699.359309759531</v>
+        <v>1471.18968573037</v>
       </c>
       <c r="W42" t="n">
-        <v>1445.12195303133</v>
+        <v>1216.952329002168</v>
       </c>
       <c r="X42" t="n">
-        <v>1237.270452825797</v>
+        <v>1009.100828796636</v>
       </c>
       <c r="Y42" t="n">
-        <v>1029.510154060843</v>
+        <v>801.3405300316817</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2168.20396431253</v>
+        <v>191.5851603115265</v>
       </c>
       <c r="C43" t="n">
-        <v>1999.267781384624</v>
+        <v>191.5851603115265</v>
       </c>
       <c r="D43" t="n">
-        <v>1849.151141972288</v>
+        <v>191.5851603115265</v>
       </c>
       <c r="E43" t="n">
-        <v>1849.151141972288</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="F43" t="n">
-        <v>1849.151141972288</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="G43" t="n">
-        <v>1849.151141972288</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="H43" t="n">
-        <v>1691.402769404818</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="I43" t="n">
-        <v>1555.073858503466</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="J43" t="n">
-        <v>1509.417334070601</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="K43" t="n">
-        <v>1565.719527136869</v>
+        <v>99.97425979540151</v>
       </c>
       <c r="L43" t="n">
-        <v>1693.293384698027</v>
+        <v>227.5481173565599</v>
       </c>
       <c r="M43" t="n">
-        <v>1838.191253416057</v>
+        <v>372.4459860745898</v>
       </c>
       <c r="N43" t="n">
-        <v>1985.078391100486</v>
+        <v>519.3331237590189</v>
       </c>
       <c r="O43" t="n">
-        <v>2104.736141609726</v>
+        <v>638.9908742682591</v>
       </c>
       <c r="P43" t="n">
-        <v>2183.60333645667</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="Q43" t="n">
-        <v>2183.60333645667</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="R43" t="n">
-        <v>2183.60333645667</v>
+        <v>569.7114105493872</v>
       </c>
       <c r="S43" t="n">
-        <v>2183.60333645667</v>
+        <v>569.7114105493872</v>
       </c>
       <c r="T43" t="n">
-        <v>2183.60333645667</v>
+        <v>569.7114105493872</v>
       </c>
       <c r="U43" t="n">
-        <v>2183.60333645667</v>
+        <v>569.7114105493872</v>
       </c>
       <c r="V43" t="n">
-        <v>2183.60333645667</v>
+        <v>419.5747112095438</v>
       </c>
       <c r="W43" t="n">
-        <v>2168.20396431253</v>
+        <v>419.5747112095438</v>
       </c>
       <c r="X43" t="n">
-        <v>2168.20396431253</v>
+        <v>191.5851603115265</v>
       </c>
       <c r="Y43" t="n">
-        <v>2168.20396431253</v>
+        <v>191.5851603115265</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1722.244992529873</v>
+        <v>1225.312905490111</v>
       </c>
       <c r="C44" t="n">
-        <v>1353.282475589462</v>
+        <v>1225.312905490111</v>
       </c>
       <c r="D44" t="n">
-        <v>1353.282475589462</v>
+        <v>1225.312905490111</v>
       </c>
       <c r="E44" t="n">
-        <v>1353.282475589462</v>
+        <v>1026.087755625465</v>
       </c>
       <c r="F44" t="n">
-        <v>942.2965707998541</v>
+        <v>615.1018508358569</v>
       </c>
       <c r="G44" t="n">
-        <v>524.3327626980409</v>
+        <v>197.1380427340438</v>
       </c>
       <c r="H44" t="n">
         <v>197.1380427340438</v>
       </c>
       <c r="I44" t="n">
-        <v>43.67206672913341</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="J44" t="n">
         <v>159.4399229620831</v>
       </c>
       <c r="K44" t="n">
-        <v>453.6907339820816</v>
+        <v>159.4399229620831</v>
       </c>
       <c r="L44" t="n">
-        <v>800.7101277287194</v>
+        <v>576.760701011178</v>
       </c>
       <c r="M44" t="n">
-        <v>1281.666447886755</v>
+        <v>848.6929927188901</v>
       </c>
       <c r="N44" t="n">
         <v>1322.799691415622</v>
       </c>
       <c r="O44" t="n">
-        <v>1725.297565081137</v>
+        <v>1725.297565081136</v>
       </c>
       <c r="P44" t="n">
-        <v>2031.1458052297</v>
+        <v>2031.145805229699</v>
       </c>
       <c r="Q44" t="n">
-        <v>2183.60333645667</v>
+        <v>2183.603336456669</v>
       </c>
       <c r="R44" t="n">
-        <v>2128.574646987163</v>
+        <v>2183.603336456669</v>
       </c>
       <c r="S44" t="n">
-        <v>1952.397159301333</v>
+        <v>2183.603336456669</v>
       </c>
       <c r="T44" t="n">
-        <v>1952.397159301333</v>
+        <v>2183.603336456669</v>
       </c>
       <c r="U44" t="n">
-        <v>1952.397159301333</v>
+        <v>1929.841551094761</v>
       </c>
       <c r="V44" t="n">
-        <v>1952.397159301333</v>
+        <v>1598.77866375119</v>
       </c>
       <c r="W44" t="n">
-        <v>1952.397159301333</v>
+        <v>1598.77866375119</v>
       </c>
       <c r="X44" t="n">
-        <v>1722.244992529873</v>
+        <v>1225.312905490111</v>
       </c>
       <c r="Y44" t="n">
-        <v>1722.244992529873</v>
+        <v>1225.312905490111</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>910.9733448902239</v>
+        <v>753.3352152728653</v>
       </c>
       <c r="C45" t="n">
-        <v>736.5203156090969</v>
+        <v>578.8821859917383</v>
       </c>
       <c r="D45" t="n">
-        <v>587.5859059478456</v>
+        <v>454.8868616827621</v>
       </c>
       <c r="E45" t="n">
-        <v>433.5595197310405</v>
+        <v>295.6494066773066</v>
       </c>
       <c r="F45" t="n">
-        <v>287.0249617579254</v>
+        <v>149.1148487041915</v>
       </c>
       <c r="G45" t="n">
-        <v>149.1148487041916</v>
+        <v>149.1148487041915</v>
       </c>
       <c r="H45" t="n">
-        <v>43.67206672913341</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="I45" t="n">
-        <v>43.67206672913341</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="J45" t="n">
-        <v>118.9292291292632</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="K45" t="n">
-        <v>374.1765495703618</v>
+        <v>298.9193871702319</v>
       </c>
       <c r="L45" t="n">
-        <v>778.7924676660336</v>
+        <v>703.5353052659038</v>
       </c>
       <c r="M45" t="n">
-        <v>841.8913681115646</v>
+        <v>1155.972030456466</v>
       </c>
       <c r="N45" t="n">
-        <v>1382.33319388459</v>
+        <v>1235.1496159559</v>
       </c>
       <c r="O45" t="n">
         <v>1675.285538976244</v>
       </c>
       <c r="P45" t="n">
-        <v>2011.530352591073</v>
+        <v>2011.530352591072</v>
       </c>
       <c r="Q45" t="n">
-        <v>2183.60333645667</v>
+        <v>2183.603336456669</v>
       </c>
       <c r="R45" t="n">
-        <v>2133.389965868495</v>
+        <v>2183.603336456669</v>
       </c>
       <c r="S45" t="n">
-        <v>1975.216993512411</v>
+        <v>2025.430364100585</v>
       </c>
       <c r="T45" t="n">
-        <v>1776.33844563519</v>
+        <v>1826.551816223364</v>
       </c>
       <c r="U45" t="n">
-        <v>1776.33844563519</v>
+        <v>1826.551816223364</v>
       </c>
       <c r="V45" t="n">
-        <v>1541.186337403447</v>
+        <v>1591.399707991622</v>
       </c>
       <c r="W45" t="n">
-        <v>1286.948980675246</v>
+        <v>1337.16235126342</v>
       </c>
       <c r="X45" t="n">
-        <v>1286.948980675246</v>
+        <v>1129.310851057887</v>
       </c>
       <c r="Y45" t="n">
-        <v>1079.188681910292</v>
+        <v>921.5505522929334</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1894.186166419709</v>
+        <v>340.6786536393795</v>
       </c>
       <c r="C46" t="n">
-        <v>1894.186166419709</v>
+        <v>340.6786536393795</v>
       </c>
       <c r="D46" t="n">
-        <v>1744.069527007374</v>
+        <v>190.5620142270437</v>
       </c>
       <c r="E46" t="n">
-        <v>1744.069527007374</v>
+        <v>190.5620142270437</v>
       </c>
       <c r="F46" t="n">
-        <v>1744.069527007374</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="G46" t="n">
-        <v>1744.069527007374</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="H46" t="n">
-        <v>1691.402769404818</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="I46" t="n">
-        <v>1555.073858503466</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.417334070601</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="K46" t="n">
-        <v>1565.719527136869</v>
+        <v>99.97425979540151</v>
       </c>
       <c r="L46" t="n">
-        <v>1693.293384698027</v>
+        <v>227.5481173565599</v>
       </c>
       <c r="M46" t="n">
-        <v>1838.191253416057</v>
+        <v>372.4459860745898</v>
       </c>
       <c r="N46" t="n">
-        <v>1985.078391100486</v>
+        <v>519.3331237590189</v>
       </c>
       <c r="O46" t="n">
-        <v>2104.736141609726</v>
+        <v>638.9908742682591</v>
       </c>
       <c r="P46" t="n">
-        <v>2183.60333645667</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="Q46" t="n">
-        <v>2183.60333645667</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="R46" t="n">
-        <v>2183.60333645667</v>
+        <v>569.7114105493872</v>
       </c>
       <c r="S46" t="n">
-        <v>2183.60333645667</v>
+        <v>569.7114105493872</v>
       </c>
       <c r="T46" t="n">
-        <v>2183.60333645667</v>
+        <v>342.403223217989</v>
       </c>
       <c r="U46" t="n">
-        <v>2183.60333645667</v>
+        <v>342.403223217989</v>
       </c>
       <c r="V46" t="n">
-        <v>2183.60333645667</v>
+        <v>342.403223217989</v>
       </c>
       <c r="W46" t="n">
-        <v>1894.186166419709</v>
+        <v>340.6786536393795</v>
       </c>
       <c r="X46" t="n">
-        <v>1894.186166419709</v>
+        <v>340.6786536393795</v>
       </c>
       <c r="Y46" t="n">
-        <v>1894.186166419709</v>
+        <v>340.6786536393795</v>
       </c>
     </row>
   </sheetData>
@@ -8692,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>233.4482034142198</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8710,7 +8710,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>153.4701004453419</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>116.0133675503593</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>245.4104498145096</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8935,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>378.5020341974215</v>
       </c>
       <c r="N14" t="n">
-        <v>82.9860069944578</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.31748437003577</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9011,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>222.3884758412395</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>343.8219939914516</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.266192922115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9254,13 +9254,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050812</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9494,7 +9494,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>251.4045252050821</v>
+        <v>327.4218609627881</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K27" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,13 +10439,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>275.044284299266</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>26.92237113682282</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>110.6633258984292</v>
+        <v>262.9538179569196</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>6.639660809448799</v>
+        <v>116.0133675503584</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>109.1552954670795</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>465.9234750238308</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11299,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>26.92237113682285</v>
       </c>
       <c r="L44" t="n">
-        <v>346.6497152550393</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>238.3781512197786</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11384,13 +11384,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>393.2705300454866</v>
       </c>
       <c r="N45" t="n">
-        <v>465.9234750238309</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>245.1920385406792</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>229.8498455975881</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>120.1741808813922</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>13.74652076527403</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,10 +23351,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23396,13 +23396,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>90.78954134724688</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>51.79469286292883</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23472,7 +23472,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>85.19271039829701</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>75.2081606758187</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>288.5034113866215</v>
       </c>
     </row>
     <row r="15">
@@ -23573,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>39.19462946772869</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.55751459946714</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>167.5285052852792</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,13 +23670,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23706,10 +23706,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>295.6712634489317</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>263.9182295498967</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T19" t="n">
-        <v>202.6835682680297</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23974,13 +23974,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>100.0922790130446</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>128.1902106262431</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>130.7626639532037</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>232.0474423175574</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>38.36764948712533</v>
+        <v>51.3549212981539</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24262,13 +24262,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24384,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>168.5393373498799</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>8.179145750737575</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>304.0111528515167</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>233.7565992609985</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>100.330857479769</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.974660358414894</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>115.9909412324506</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24858,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>231.8063182229441</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>260.6788285737787</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>21.47167236000229</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,28 +25077,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>94.13991699917875</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>228.0024656274833</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>36.07658745069551</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25317,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>137.9093583789965</v>
       </c>
       <c r="E37" t="n">
-        <v>98.3975210296114</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>232.8382474385161</v>
+        <v>318.3669783706423</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>55.37228994299372</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>19.66077927292511</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25639,7 +25639,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>335.0938578210839</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>106.0517673126998</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>115.7629206542263</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25715,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>9.307090655412964</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,13 +25803,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25845,13 +25845,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>103.502310977383</v>
       </c>
       <c r="W43" t="n">
-        <v>271.2776199138926</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,13 +25867,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>184.6974717062622</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>141.8804555747236</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25949,22 +25949,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>24.68969449875227</v>
       </c>
       <c r="E45" t="n">
-        <v>5.158958100763897</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26034,19 +26034,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>104.0307988152648</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,16 +26067,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>284.8156744537676</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>618146.6731592279</v>
+        <v>618146.6731592277</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>699057.7649559246</v>
+        <v>699057.7649559247</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>699057.7649559247</v>
+        <v>699057.7649559246</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>699057.7649559248</v>
+        <v>699057.7649559246</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>618146.6731592279</v>
+        <v>618146.6731592277</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>618146.6731592279</v>
+        <v>618146.6731592278</v>
       </c>
     </row>
   </sheetData>
@@ -26316,28 +26316,28 @@
         <v>593975.3455698526</v>
       </c>
       <c r="C2" t="n">
+        <v>593975.3455698527</v>
+      </c>
+      <c r="D2" t="n">
         <v>593975.3455698526</v>
       </c>
-      <c r="D2" t="n">
-        <v>593975.3455698527</v>
-      </c>
       <c r="E2" t="n">
-        <v>375201.77156721</v>
+        <v>375201.7715672097</v>
       </c>
       <c r="F2" t="n">
-        <v>375201.7715672099</v>
+        <v>375201.7715672098</v>
       </c>
       <c r="G2" t="n">
-        <v>419271.2845228483</v>
+        <v>419271.2845228482</v>
       </c>
       <c r="H2" t="n">
         <v>419271.2845228481</v>
       </c>
       <c r="I2" t="n">
+        <v>419271.2845228481</v>
+      </c>
+      <c r="J2" t="n">
         <v>419271.2845228482</v>
-      </c>
-      <c r="J2" t="n">
-        <v>419271.2845228483</v>
       </c>
       <c r="K2" t="n">
         <v>419271.2845228481</v>
@@ -26346,16 +26346,16 @@
         <v>419271.2845228481</v>
       </c>
       <c r="M2" t="n">
-        <v>419271.2845228483</v>
+        <v>419271.2845228482</v>
       </c>
       <c r="N2" t="n">
-        <v>419271.2845228483</v>
+        <v>419271.2845228481</v>
       </c>
       <c r="O2" t="n">
+        <v>375201.7715672099</v>
+      </c>
+      <c r="P2" t="n">
         <v>375201.7715672098</v>
-      </c>
-      <c r="P2" t="n">
-        <v>375201.7715672097</v>
       </c>
     </row>
     <row r="3">
@@ -26426,10 +26426,10 @@
         <v>409397.0283363865</v>
       </c>
       <c r="E4" t="n">
+        <v>88109.07502345192</v>
+      </c>
+      <c r="F4" t="n">
         <v>88109.07502345194</v>
-      </c>
-      <c r="F4" t="n">
-        <v>88109.07502345192</v>
       </c>
       <c r="G4" t="n">
         <v>106808.022922681</v>
@@ -26441,10 +26441,10 @@
         <v>106808.022922681</v>
       </c>
       <c r="J4" t="n">
-        <v>106808.0229226811</v>
+        <v>106808.022922681</v>
       </c>
       <c r="K4" t="n">
-        <v>106808.0229226811</v>
+        <v>106808.022922681</v>
       </c>
       <c r="L4" t="n">
         <v>106808.022922681</v>
@@ -26453,13 +26453,13 @@
         <v>106808.022922681</v>
       </c>
       <c r="N4" t="n">
-        <v>106808.0229226811</v>
+        <v>106808.022922681</v>
       </c>
       <c r="O4" t="n">
-        <v>88109.07502345194</v>
+        <v>88109.07502345191</v>
       </c>
       <c r="P4" t="n">
-        <v>88109.07502345192</v>
+        <v>88109.07502345191</v>
       </c>
     </row>
     <row r="5">
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>41425.58259407387</v>
+        <v>41425.58259407386</v>
       </c>
       <c r="P5" t="n">
-        <v>41425.58259407387</v>
+        <v>41425.58259407386</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150950.7172334661</v>
+        <v>150906.581454785</v>
       </c>
       <c r="C6" t="n">
-        <v>150950.7172334661</v>
+        <v>150906.5814547851</v>
       </c>
       <c r="D6" t="n">
-        <v>150950.7172334662</v>
+        <v>150906.581454785</v>
       </c>
       <c r="E6" t="n">
-        <v>-220807.2583614558</v>
+        <v>-228395.3104850558</v>
       </c>
       <c r="F6" t="n">
-        <v>245667.1139496841</v>
+        <v>238079.0618260842</v>
       </c>
       <c r="G6" t="n">
-        <v>228042.986502007</v>
+        <v>221974.5727561877</v>
       </c>
       <c r="H6" t="n">
-        <v>263231.7835367576</v>
+        <v>257163.3697909385</v>
       </c>
       <c r="I6" t="n">
-        <v>263231.7835367577</v>
+        <v>257163.3697909385</v>
       </c>
       <c r="J6" t="n">
-        <v>263231.7835367578</v>
+        <v>257163.3697909385</v>
       </c>
       <c r="K6" t="n">
-        <v>263231.7835367576</v>
+        <v>257163.3697909384</v>
       </c>
       <c r="L6" t="n">
-        <v>263231.7835367577</v>
+        <v>257163.3697909384</v>
       </c>
       <c r="M6" t="n">
-        <v>127191.1120721708</v>
+        <v>121122.6983263515</v>
       </c>
       <c r="N6" t="n">
-        <v>263231.7835367578</v>
+        <v>257163.3697909384</v>
       </c>
       <c r="O6" t="n">
-        <v>245667.113949684</v>
+        <v>238079.0618260842</v>
       </c>
       <c r="P6" t="n">
-        <v>245667.1139496839</v>
+        <v>238079.0618260842</v>
       </c>
     </row>
   </sheetData>
@@ -26798,25 +26798,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>545.9008341141675</v>
+        <v>545.9008341141674</v>
       </c>
       <c r="F4" t="n">
-        <v>545.9008341141675</v>
+        <v>545.9008341141674</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545555</v>
@@ -26825,13 +26825,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>545.9008341141675</v>
+        <v>545.9008341141673</v>
       </c>
       <c r="P4" t="n">
-        <v>545.9008341141675</v>
+        <v>545.9008341141673</v>
       </c>
     </row>
   </sheetData>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>545.9008341141674</v>
+        <v>545.9008341141675</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31776,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31864,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31949,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -35412,25 +35412,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>206.525832277397</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>3.874924893079708</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>36.30093131326393</v>
       </c>
       <c r="N11" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>95.15261607530606</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
-        <v>109.3737067409105</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35500,10 +35500,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>79.97735909033671</v>
+        <v>79.97735909033668</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>296.1298709623698</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35655,19 +35655,19 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>414.8029655106854</v>
       </c>
       <c r="N14" t="n">
-        <v>124.5347378316973</v>
+        <v>41.54873083723948</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>260.251078109166</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>423.7993530817882</v>
+        <v>79.97735909033668</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
-        <v>21.17845723362748</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35892,16 +35892,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,13 +35974,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
@@ -36214,7 +36214,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36366,16 +36366,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>289.2671274730086</v>
+        <v>365.2844632307146</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36451,7 +36451,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36688,13 +36688,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36922,10 +36922,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,13 +37159,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37314,16 +37314,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,10 +37396,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37636,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
         <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>36.30093131326393</v>
       </c>
       <c r="N41" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>97.80223403862637</v>
+        <v>250.0927260971166</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>109.3737067409096</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>172.8915585433733</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>545.9008341141675</v>
+        <v>79.97735909033668</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>350.524640148119</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>274.6790825330426</v>
       </c>
       <c r="N44" t="n">
-        <v>41.54873083723948</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38104,13 +38104,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>63.73626307629388</v>
+        <v>457.0067931217804</v>
       </c>
       <c r="N45" t="n">
-        <v>545.9008341141675</v>
+        <v>79.97735909033668</v>
       </c>
       <c r="O45" t="n">
-        <v>295.9114596885394</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_12_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_12_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1448888.696461499</v>
+        <v>1482470.30502236</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7903192.579699638</v>
+        <v>7903192.579699639</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8439121.662989408</v>
+        <v>8439121.66298941</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>323.3674683611129</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>207.5780775887427</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1454,22 +1454,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>133.6985447993647</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>155.4711868935944</v>
       </c>
       <c r="T12" t="n">
         <v>196.8897623984489</v>
@@ -1508,10 +1508,10 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>201.0891638436807</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>33.2940794646337</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>97.73452726943211</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>118.4504509876723</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>0.6531486835787703</v>
       </c>
       <c r="H15" t="n">
         <v>104.3883541553076</v>
@@ -1736,7 +1736,7 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>196.8897623984489</v>
@@ -1751,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>94.63926978364034</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>223.82438355203</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,10 +1852,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>86.25910662333015</v>
+        <v>241.9109848567528</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -1900,7 +1900,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1979,10 +1979,10 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8879277888678</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>232.800587149425</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>156.127162662147</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>81.6480249358935</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>254.5907626076383</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>335.3965886158484</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -2134,22 +2134,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883149</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2177,7 +2177,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I21" t="n">
         <v>61.42221998250819</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>15.67129869336544</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>22.58276652364323</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>330.5754487741079</v>
+        <v>208.9348511226578</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2414,10 +2414,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.584064958725</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>208.2691746069202</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>334.3299980934086</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.2537958723258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.8095096623801</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>216.1233558959138</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>141.55483850657</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>122.0550130897019</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>160.0577614494584</v>
       </c>
     </row>
     <row r="33">
@@ -3170,7 +3170,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609189</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>59.72683757586842</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>79.52239287650595</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>23.22170188080599</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>10.70611463921582</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>120.4120358099646</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>36.31606325004064</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -3553,7 +3553,7 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -3568,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>251.3808181148276</v>
       </c>
     </row>
     <row r="39">
@@ -3638,10 +3638,10 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494245</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>90.04875807993753</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>63.57678144609342</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>5.394255176165069</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>263.6793333657692</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3827,7 +3827,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>148.337989799988</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3836,7 +3836,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>196.8897623984489</v>
+        <v>172.1453560236328</v>
       </c>
       <c r="U42" t="n">
         <v>225.8879277888686</v>
@@ -3884,7 +3884,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>162.3364906735233</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>148.635332346445</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>106.7510333838709</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>197.2328983659995</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4061,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>122.7553710658865</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4070,7 +4070,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
         <v>104.3883541553076</v>
@@ -4109,10 +4109,10 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4121,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>15.55411339110985</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>74.09260911231075</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>1.707323882823381</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>951.8888122726996</v>
+        <v>1852.540449113099</v>
       </c>
       <c r="C11" t="n">
-        <v>582.926295332288</v>
+        <v>1852.540449113099</v>
       </c>
       <c r="D11" t="n">
-        <v>582.926295332288</v>
+        <v>1494.274750506349</v>
       </c>
       <c r="E11" t="n">
-        <v>197.1380427340438</v>
+        <v>1108.486497908105</v>
       </c>
       <c r="F11" t="n">
-        <v>197.1380427340438</v>
+        <v>697.5005931184971</v>
       </c>
       <c r="G11" t="n">
-        <v>197.1380427340438</v>
+        <v>370.8667866931306</v>
       </c>
       <c r="H11" t="n">
-        <v>197.1380427340438</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="I11" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="J11" t="n">
         <v>159.4399229620831</v>
@@ -5047,19 +5047,19 @@
         <v>453.6907339820816</v>
       </c>
       <c r="L11" t="n">
-        <v>871.0115120311764</v>
+        <v>812.7550707187597</v>
       </c>
       <c r="M11" t="n">
-        <v>906.9494340313076</v>
+        <v>848.692992718891</v>
       </c>
       <c r="N11" t="n">
-        <v>1381.056132728039</v>
+        <v>1322.799691415622</v>
       </c>
       <c r="O11" t="n">
-        <v>1783.554006393554</v>
+        <v>1725.297565081137</v>
       </c>
       <c r="P11" t="n">
-        <v>2089.402246542117</v>
+        <v>2031.1458052297</v>
       </c>
       <c r="Q11" t="n">
         <v>2183.60333645667</v>
@@ -5068,25 +5068,25 @@
         <v>2183.60333645667</v>
       </c>
       <c r="S11" t="n">
-        <v>2007.42584877084</v>
+        <v>2183.60333645667</v>
       </c>
       <c r="T11" t="n">
-        <v>1788.791181742903</v>
+        <v>2183.60333645667</v>
       </c>
       <c r="U11" t="n">
-        <v>1535.029396380994</v>
+        <v>2183.60333645667</v>
       </c>
       <c r="V11" t="n">
-        <v>1325.354570533779</v>
+        <v>1852.540449113099</v>
       </c>
       <c r="W11" t="n">
-        <v>1325.354570533779</v>
+        <v>1852.540449113099</v>
       </c>
       <c r="X11" t="n">
-        <v>951.8888122726996</v>
+        <v>1852.540449113099</v>
       </c>
       <c r="Y11" t="n">
-        <v>951.8888122726996</v>
+        <v>1852.540449113099</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.3416856154745</v>
+        <v>526.2969606769672</v>
       </c>
       <c r="C12" t="n">
-        <v>789.8886563343475</v>
+        <v>351.8439313958402</v>
       </c>
       <c r="D12" t="n">
-        <v>654.839621183474</v>
+        <v>202.9095217345889</v>
       </c>
       <c r="E12" t="n">
-        <v>495.6021661780185</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="F12" t="n">
-        <v>349.0676082049034</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="G12" t="n">
-        <v>211.1574951511695</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="H12" t="n">
-        <v>105.7147131761114</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="I12" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="J12" t="n">
-        <v>118.9292291292632</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="K12" t="n">
-        <v>374.1765495703617</v>
+        <v>227.2091988027646</v>
       </c>
       <c r="L12" t="n">
-        <v>778.7924676660336</v>
+        <v>631.8251168984365</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.939381224065</v>
+        <v>1155.972030456467</v>
       </c>
       <c r="N12" t="n">
-        <v>1382.116966723498</v>
+        <v>1235.149615955901</v>
       </c>
       <c r="O12" t="n">
         <v>1675.285538976244</v>
@@ -5144,28 +5144,28 @@
         <v>2183.60333645667</v>
       </c>
       <c r="R12" t="n">
-        <v>2133.389965868495</v>
+        <v>2183.60333645667</v>
       </c>
       <c r="S12" t="n">
-        <v>1975.216993512411</v>
+        <v>2026.561733533847</v>
       </c>
       <c r="T12" t="n">
-        <v>1776.33844563519</v>
+        <v>1827.683185656626</v>
       </c>
       <c r="U12" t="n">
-        <v>1548.168821606029</v>
+        <v>1599.513561627466</v>
       </c>
       <c r="V12" t="n">
-        <v>1548.168821606029</v>
+        <v>1364.361453395723</v>
       </c>
       <c r="W12" t="n">
-        <v>1548.168821606029</v>
+        <v>1110.124096667522</v>
       </c>
       <c r="X12" t="n">
-        <v>1340.317321400496</v>
+        <v>902.272596461989</v>
       </c>
       <c r="Y12" t="n">
-        <v>1132.557022635543</v>
+        <v>694.5122976970351</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="C13" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="D13" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="E13" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="F13" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="G13" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="H13" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="I13" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="J13" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="K13" t="n">
         <v>99.97425979540154</v>
@@ -5226,25 +5226,25 @@
         <v>717.8580691152032</v>
       </c>
       <c r="S13" t="n">
-        <v>717.8580691152032</v>
+        <v>560.3974240974923</v>
       </c>
       <c r="T13" t="n">
-        <v>717.8580691152032</v>
+        <v>333.089236766094</v>
       </c>
       <c r="U13" t="n">
-        <v>514.7377015963337</v>
+        <v>333.089236766094</v>
       </c>
       <c r="V13" t="n">
-        <v>514.7377015963337</v>
+        <v>333.089236766094</v>
       </c>
       <c r="W13" t="n">
-        <v>225.3205315593731</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="X13" t="n">
-        <v>225.3205315593731</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.3205315593731</v>
+        <v>43.67206672913341</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1690.069437026305</v>
+        <v>1230.887478227305</v>
       </c>
       <c r="C14" t="n">
-        <v>1321.106920085893</v>
+        <v>1230.887478227305</v>
       </c>
       <c r="D14" t="n">
-        <v>1321.106920085893</v>
+        <v>872.6217796205541</v>
       </c>
       <c r="E14" t="n">
-        <v>935.3186674876486</v>
+        <v>872.6217796205541</v>
       </c>
       <c r="F14" t="n">
-        <v>524.3327626980409</v>
+        <v>461.6358748309465</v>
       </c>
       <c r="G14" t="n">
-        <v>524.3327626980409</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="H14" t="n">
-        <v>197.1380427340438</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="I14" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="J14" t="n">
         <v>159.4399229620831</v>
@@ -5287,13 +5287,13 @@
         <v>871.0115120311764</v>
       </c>
       <c r="M14" t="n">
-        <v>1281.666447886755</v>
+        <v>1351.967832189212</v>
       </c>
       <c r="N14" t="n">
-        <v>1322.799691415622</v>
+        <v>1393.101075718079</v>
       </c>
       <c r="O14" t="n">
-        <v>1725.297565081137</v>
+        <v>1795.598949383594</v>
       </c>
       <c r="P14" t="n">
         <v>2031.1458052297</v>
@@ -5308,22 +5308,22 @@
         <v>2007.42584877084</v>
       </c>
       <c r="T14" t="n">
-        <v>1788.791181742903</v>
+        <v>2007.42584877084</v>
       </c>
       <c r="U14" t="n">
-        <v>1788.791181742903</v>
+        <v>2007.42584877084</v>
       </c>
       <c r="V14" t="n">
-        <v>1788.791181742903</v>
+        <v>2007.42584877084</v>
       </c>
       <c r="W14" t="n">
-        <v>1788.791181742903</v>
+        <v>1654.657193500726</v>
       </c>
       <c r="X14" t="n">
-        <v>1788.791181742903</v>
+        <v>1654.657193500726</v>
       </c>
       <c r="Y14" t="n">
-        <v>1690.069437026305</v>
+        <v>1264.517861524914</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>643.1675576755983</v>
+        <v>840.9766932171474</v>
       </c>
       <c r="C15" t="n">
-        <v>468.7145283944714</v>
+        <v>666.5236639360204</v>
       </c>
       <c r="D15" t="n">
-        <v>468.7145283944714</v>
+        <v>517.5892542747691</v>
       </c>
       <c r="E15" t="n">
-        <v>349.0676082049034</v>
+        <v>358.3517992693136</v>
       </c>
       <c r="F15" t="n">
-        <v>349.0676082049034</v>
+        <v>211.8172412961986</v>
       </c>
       <c r="G15" t="n">
         <v>211.1574951511695</v>
@@ -5354,22 +5354,22 @@
         <v>105.7147131761114</v>
       </c>
       <c r="I15" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="J15" t="n">
-        <v>118.9292291292632</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="K15" t="n">
-        <v>374.1765495703617</v>
+        <v>298.9193871702319</v>
       </c>
       <c r="L15" t="n">
-        <v>631.825116898436</v>
+        <v>703.5353052659038</v>
       </c>
       <c r="M15" t="n">
-        <v>1155.972030456467</v>
+        <v>766.6342057114348</v>
       </c>
       <c r="N15" t="n">
-        <v>1235.1496159559</v>
+        <v>1235.149615955901</v>
       </c>
       <c r="O15" t="n">
         <v>1675.285538976244</v>
@@ -5384,25 +5384,25 @@
         <v>2133.389965868495</v>
       </c>
       <c r="S15" t="n">
-        <v>1975.216993512411</v>
+        <v>2133.389965868495</v>
       </c>
       <c r="T15" t="n">
-        <v>1776.33844563519</v>
+        <v>1934.511417991274</v>
       </c>
       <c r="U15" t="n">
-        <v>1548.168821606029</v>
+        <v>1706.341793962114</v>
       </c>
       <c r="V15" t="n">
-        <v>1313.016713374287</v>
+        <v>1471.189685730371</v>
       </c>
       <c r="W15" t="n">
-        <v>1058.779356646085</v>
+        <v>1216.952329002169</v>
       </c>
       <c r="X15" t="n">
-        <v>850.9278564405522</v>
+        <v>1216.952329002169</v>
       </c>
       <c r="Y15" t="n">
-        <v>643.1675576755983</v>
+        <v>1009.192030237215</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="C16" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="D16" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="E16" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="F16" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="G16" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="H16" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="I16" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="J16" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="K16" t="n">
         <v>99.97425979540154</v>
@@ -5466,22 +5466,22 @@
         <v>717.8580691152032</v>
       </c>
       <c r="T16" t="n">
-        <v>622.2628471115261</v>
+        <v>490.5498817838049</v>
       </c>
       <c r="U16" t="n">
-        <v>333.089236766094</v>
+        <v>490.5498817838049</v>
       </c>
       <c r="V16" t="n">
-        <v>333.089236766094</v>
+        <v>490.5498817838049</v>
       </c>
       <c r="W16" t="n">
-        <v>43.6720667291334</v>
+        <v>490.5498817838049</v>
       </c>
       <c r="X16" t="n">
-        <v>43.6720667291334</v>
+        <v>264.4646458726635</v>
       </c>
       <c r="Y16" t="n">
-        <v>43.6720667291334</v>
+        <v>43.67206672913341</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1697.251320989584</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="C17" t="n">
-        <v>1328.288804049172</v>
+        <v>1074.527018687264</v>
       </c>
       <c r="D17" t="n">
-        <v>970.0231054424216</v>
+        <v>716.2613200805138</v>
       </c>
       <c r="E17" t="n">
-        <v>882.8926947117851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F17" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
         <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V17" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W17" t="n">
-        <v>2070.717079250664</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X17" t="n">
-        <v>1697.251320989584</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y17" t="n">
-        <v>1697.251320989584</v>
+        <v>1443.489535627676</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5606,13 +5606,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036444</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5700,25 +5700,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>570.4247794971948</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>343.1165921657965</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U19" t="n">
-        <v>53.94298182036444</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036444</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036444</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036444</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036444</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1662.483574129469</v>
+        <v>1702.337823625994</v>
       </c>
       <c r="C20" t="n">
-        <v>1293.521057189058</v>
+        <v>1702.337823625994</v>
       </c>
       <c r="D20" t="n">
-        <v>1036.358670716696</v>
+        <v>1702.337823625994</v>
       </c>
       <c r="E20" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H20" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.483574129469</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W20" t="n">
-        <v>1662.483574129469</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X20" t="n">
-        <v>1662.483574129469</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y20" t="n">
-        <v>1662.483574129469</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5837,19 +5837,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5870,10 +5870,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.77257646012751</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C22" t="n">
-        <v>69.77257646012751</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D22" t="n">
-        <v>69.77257646012751</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5934,28 +5934,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T22" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U22" t="n">
-        <v>579.9823256406182</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V22" t="n">
-        <v>579.9823256406182</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W22" t="n">
-        <v>290.5651556036576</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X22" t="n">
-        <v>290.5651556036576</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.77257646012751</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1216.807289433106</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C23" t="n">
-        <v>1216.807289433106</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="D23" t="n">
-        <v>1216.807289433106</v>
+        <v>836.4180700913887</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>1993.54646147304</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W23" t="n">
-        <v>1993.54646147304</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X23" t="n">
-        <v>1993.54646147304</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y23" t="n">
-        <v>1603.407129497228</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036444</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036444</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036444</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036444</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036444</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>338.3366048012365</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6180,19 +6180,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036444</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1494.154169929768</v>
+        <v>934.637173372437</v>
       </c>
       <c r="C26" t="n">
-        <v>1125.191652989356</v>
+        <v>565.6746564320254</v>
       </c>
       <c r="D26" t="n">
-        <v>766.9259543826058</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E26" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2431.747497905361</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U26" t="n">
-        <v>2177.985712543453</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V26" t="n">
-        <v>1846.922825199882</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W26" t="n">
-        <v>1494.154169929768</v>
+        <v>1324.776505348249</v>
       </c>
       <c r="X26" t="n">
-        <v>1494.154169929768</v>
+        <v>1324.776505348249</v>
       </c>
       <c r="Y26" t="n">
-        <v>1494.154169929768</v>
+        <v>934.637173372437</v>
       </c>
     </row>
     <row r="27">
@@ -6281,73 +6281,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
         <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6414,22 +6414,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1238.153685885793</v>
+        <v>1538.731846067564</v>
       </c>
       <c r="C29" t="n">
-        <v>1238.153685885793</v>
+        <v>1169.769329127152</v>
       </c>
       <c r="D29" t="n">
-        <v>879.8879872790428</v>
+        <v>811.5036305204017</v>
       </c>
       <c r="E29" t="n">
-        <v>879.8879872790428</v>
+        <v>425.7153779221574</v>
       </c>
       <c r="F29" t="n">
-        <v>468.9020824894353</v>
+        <v>425.7153779221574</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036444</v>
+        <v>425.7153779221574</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548715</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U29" t="n">
-        <v>2388.358616186807</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V29" t="n">
-        <v>2388.358616186807</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W29" t="n">
-        <v>2388.358616186807</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.892857925727</v>
+        <v>1928.871178043375</v>
       </c>
       <c r="Y29" t="n">
-        <v>1624.753525949915</v>
+        <v>1538.731846067564</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6551,7 +6551,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036444</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036444</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036444</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036444</v>
+        <v>365.9274674422038</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U31" t="n">
-        <v>598.0446400632119</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V31" t="n">
-        <v>343.360151857325</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036444</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036444</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036444</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1579.049931616194</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C32" t="n">
-        <v>1210.087414675782</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.087414675782</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861747</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2465.942913862885</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2465.942913862885</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>2465.942913862885</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W32" t="n">
-        <v>2465.942913862885</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X32" t="n">
-        <v>2092.477155601805</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y32" t="n">
-        <v>1702.337823625994</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="33">
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
         <v>713.8062203571349</v>
@@ -6794,10 +6794,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1011.161018525332</v>
+        <v>1349.006596680237</v>
       </c>
       <c r="C35" t="n">
-        <v>1011.161018525332</v>
+        <v>1349.006596680237</v>
       </c>
       <c r="D35" t="n">
-        <v>1011.161018525332</v>
+        <v>1349.006596680237</v>
       </c>
       <c r="E35" t="n">
-        <v>625.3727659270879</v>
+        <v>963.2183440819931</v>
       </c>
       <c r="F35" t="n">
-        <v>625.3727659270879</v>
+        <v>552.2324392923856</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>134.2686311905725</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
@@ -6970,19 +6970,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2455.058159464219</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V35" t="n">
-        <v>2123.995272120648</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W35" t="n">
-        <v>1771.226616850534</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X35" t="n">
-        <v>1397.760858589454</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="Y35" t="n">
-        <v>1397.760858589454</v>
+        <v>1735.606436744359</v>
       </c>
     </row>
     <row r="36">
@@ -7007,10 +7007,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7019,13 +7019,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>211.6471865296039</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C37" t="n">
-        <v>211.6471865296039</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
         <v>53.94298182036445</v>
@@ -7122,25 +7122,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>606.50066520647</v>
       </c>
       <c r="T37" t="n">
-        <v>500.820796875036</v>
+        <v>606.50066520647</v>
       </c>
       <c r="U37" t="n">
-        <v>211.6471865296039</v>
+        <v>606.50066520647</v>
       </c>
       <c r="V37" t="n">
-        <v>211.6471865296039</v>
+        <v>606.50066520647</v>
       </c>
       <c r="W37" t="n">
-        <v>211.6471865296039</v>
+        <v>606.50066520647</v>
       </c>
       <c r="X37" t="n">
-        <v>211.6471865296039</v>
+        <v>606.50066520647</v>
       </c>
       <c r="Y37" t="n">
-        <v>211.6471865296039</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>919.5755868835433</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="C38" t="n">
-        <v>919.5755868835433</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D38" t="n">
-        <v>882.8926947117851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F38" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.483574129469</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859355</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X38" t="n">
-        <v>1309.714918859355</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y38" t="n">
-        <v>919.5755868835433</v>
+        <v>858.5066299862995</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7265,13 +7265,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.9013233152508</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="C40" t="n">
-        <v>144.9013233152508</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="D40" t="n">
-        <v>144.9013233152508</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="E40" t="n">
-        <v>144.9013233152508</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036444</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036444</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7356,28 +7356,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>365.6939024587809</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="U40" t="n">
-        <v>365.6939024587809</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="V40" t="n">
-        <v>365.6939024587809</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="W40" t="n">
-        <v>365.6939024587809</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="X40" t="n">
-        <v>365.6939024587809</v>
+        <v>663.9100130487641</v>
       </c>
       <c r="Y40" t="n">
-        <v>144.9013233152508</v>
+        <v>663.9100130487641</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>942.2965707998541</v>
+        <v>966.3896461304018</v>
       </c>
       <c r="C41" t="n">
-        <v>942.2965707998541</v>
+        <v>966.3896461304018</v>
       </c>
       <c r="D41" t="n">
-        <v>942.2965707998541</v>
+        <v>608.1239475236514</v>
       </c>
       <c r="E41" t="n">
-        <v>942.2965707998541</v>
+        <v>608.1239475236514</v>
       </c>
       <c r="F41" t="n">
-        <v>942.2965707998541</v>
+        <v>197.1380427340438</v>
       </c>
       <c r="G41" t="n">
-        <v>524.3327626980409</v>
+        <v>197.1380427340438</v>
       </c>
       <c r="H41" t="n">
         <v>197.1380427340438</v>
       </c>
       <c r="I41" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="J41" t="n">
-        <v>159.4399229620831</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="K41" t="n">
-        <v>453.6907339820816</v>
+        <v>337.9228777491319</v>
       </c>
       <c r="L41" t="n">
-        <v>871.0115120311764</v>
+        <v>755.2436557982267</v>
       </c>
       <c r="M41" t="n">
-        <v>906.9494340313076</v>
+        <v>1236.199975956262</v>
       </c>
       <c r="N41" t="n">
-        <v>1381.056132728039</v>
+        <v>1710.306674652994</v>
       </c>
       <c r="O41" t="n">
-        <v>1783.554006393554</v>
+        <v>2112.804548318508</v>
       </c>
       <c r="P41" t="n">
-        <v>2031.145805229699</v>
+        <v>2183.60333645667</v>
       </c>
       <c r="Q41" t="n">
-        <v>2183.603336456669</v>
+        <v>2183.60333645667</v>
       </c>
       <c r="R41" t="n">
-        <v>2183.603336456669</v>
+        <v>2178.154593854483</v>
       </c>
       <c r="S41" t="n">
-        <v>2183.603336456669</v>
+        <v>2178.154593854483</v>
       </c>
       <c r="T41" t="n">
-        <v>2183.603336456669</v>
+        <v>1959.519926826546</v>
       </c>
       <c r="U41" t="n">
-        <v>1929.841551094761</v>
+        <v>1705.758141464638</v>
       </c>
       <c r="V41" t="n">
-        <v>1598.77866375119</v>
+        <v>1705.758141464638</v>
       </c>
       <c r="W41" t="n">
-        <v>1598.77866375119</v>
+        <v>1352.989486194524</v>
       </c>
       <c r="X41" t="n">
-        <v>1332.435902775666</v>
+        <v>1352.989486194524</v>
       </c>
       <c r="Y41" t="n">
-        <v>942.2965707998541</v>
+        <v>1352.989486194524</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>801.3405300316817</v>
+        <v>916.1844136788742</v>
       </c>
       <c r="C42" t="n">
-        <v>626.8875007505548</v>
+        <v>741.7313843977472</v>
       </c>
       <c r="D42" t="n">
-        <v>477.9530910893035</v>
+        <v>592.7969747364959</v>
       </c>
       <c r="E42" t="n">
-        <v>328.1167377559823</v>
+        <v>433.5595197310405</v>
       </c>
       <c r="F42" t="n">
-        <v>181.5821797828673</v>
+        <v>287.0249617579254</v>
       </c>
       <c r="G42" t="n">
-        <v>43.67206672913338</v>
+        <v>149.1148487041916</v>
       </c>
       <c r="H42" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="I42" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="J42" t="n">
-        <v>118.9292291292632</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="K42" t="n">
-        <v>227.2091988027637</v>
+        <v>298.9193871702319</v>
       </c>
       <c r="L42" t="n">
-        <v>631.8251168984356</v>
+        <v>703.5353052659038</v>
       </c>
       <c r="M42" t="n">
-        <v>1155.972030456466</v>
+        <v>766.6342057114348</v>
       </c>
       <c r="N42" t="n">
-        <v>1235.1496159559</v>
+        <v>1235.149615955901</v>
       </c>
       <c r="O42" t="n">
         <v>1675.285538976244</v>
       </c>
       <c r="P42" t="n">
-        <v>2011.530352591072</v>
+        <v>2011.530352591073</v>
       </c>
       <c r="Q42" t="n">
-        <v>2183.603336456669</v>
+        <v>2183.60333645667</v>
       </c>
       <c r="R42" t="n">
-        <v>2133.389965868494</v>
+        <v>2183.60333645667</v>
       </c>
       <c r="S42" t="n">
-        <v>2133.389965868494</v>
+        <v>2183.60333645667</v>
       </c>
       <c r="T42" t="n">
-        <v>1934.511417991273</v>
+        <v>2009.719138453001</v>
       </c>
       <c r="U42" t="n">
-        <v>1706.341793962113</v>
+        <v>1781.54951442384</v>
       </c>
       <c r="V42" t="n">
-        <v>1471.18968573037</v>
+        <v>1546.397406192098</v>
       </c>
       <c r="W42" t="n">
-        <v>1216.952329002168</v>
+        <v>1292.160049463896</v>
       </c>
       <c r="X42" t="n">
-        <v>1009.100828796636</v>
+        <v>1292.160049463896</v>
       </c>
       <c r="Y42" t="n">
-        <v>801.3405300316817</v>
+        <v>1084.399750698942</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>191.5851603115265</v>
+        <v>207.6483199347125</v>
       </c>
       <c r="C43" t="n">
-        <v>191.5851603115265</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="D43" t="n">
-        <v>191.5851603115265</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="E43" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="F43" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="G43" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="H43" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="I43" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="J43" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="K43" t="n">
-        <v>99.97425979540151</v>
+        <v>99.97425979540154</v>
       </c>
       <c r="L43" t="n">
         <v>227.5481173565599</v>
       </c>
       <c r="M43" t="n">
-        <v>372.4459860745898</v>
+        <v>372.4459860745899</v>
       </c>
       <c r="N43" t="n">
         <v>519.3331237590189</v>
@@ -7593,28 +7593,28 @@
         <v>717.8580691152032</v>
       </c>
       <c r="R43" t="n">
-        <v>569.7114105493872</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="S43" t="n">
-        <v>569.7114105493872</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="T43" t="n">
-        <v>569.7114105493872</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="U43" t="n">
-        <v>569.7114105493872</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="V43" t="n">
-        <v>419.5747112095438</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="W43" t="n">
-        <v>419.5747112095438</v>
+        <v>428.4408990782426</v>
       </c>
       <c r="X43" t="n">
-        <v>191.5851603115265</v>
+        <v>428.4408990782426</v>
       </c>
       <c r="Y43" t="n">
-        <v>191.5851603115265</v>
+        <v>207.6483199347125</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1225.312905490111</v>
+        <v>1156.68853487454</v>
       </c>
       <c r="C44" t="n">
-        <v>1225.312905490111</v>
+        <v>787.7260179341281</v>
       </c>
       <c r="D44" t="n">
-        <v>1225.312905490111</v>
+        <v>429.4603193273776</v>
       </c>
       <c r="E44" t="n">
-        <v>1026.087755625465</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="F44" t="n">
-        <v>615.1018508358569</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="G44" t="n">
-        <v>197.1380427340438</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="H44" t="n">
-        <v>197.1380427340438</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="I44" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="J44" t="n">
         <v>159.4399229620831</v>
       </c>
       <c r="K44" t="n">
-        <v>159.4399229620831</v>
+        <v>453.6907339820816</v>
       </c>
       <c r="L44" t="n">
-        <v>576.760701011178</v>
+        <v>871.0115120311764</v>
       </c>
       <c r="M44" t="n">
-        <v>848.6929927188901</v>
+        <v>906.9494340313076</v>
       </c>
       <c r="N44" t="n">
-        <v>1322.799691415622</v>
+        <v>1381.056132728039</v>
       </c>
       <c r="O44" t="n">
-        <v>1725.297565081136</v>
+        <v>1725.297565081137</v>
       </c>
       <c r="P44" t="n">
-        <v>2031.145805229699</v>
+        <v>2031.1458052297</v>
       </c>
       <c r="Q44" t="n">
-        <v>2183.603336456669</v>
+        <v>2183.60333645667</v>
       </c>
       <c r="R44" t="n">
-        <v>2183.603336456669</v>
+        <v>2183.60333645667</v>
       </c>
       <c r="S44" t="n">
-        <v>2183.603336456669</v>
+        <v>2007.42584877084</v>
       </c>
       <c r="T44" t="n">
-        <v>2183.603336456669</v>
+        <v>2007.42584877084</v>
       </c>
       <c r="U44" t="n">
-        <v>1929.841551094761</v>
+        <v>2007.42584877084</v>
       </c>
       <c r="V44" t="n">
-        <v>1598.77866375119</v>
+        <v>2007.42584877084</v>
       </c>
       <c r="W44" t="n">
-        <v>1598.77866375119</v>
+        <v>1654.657193500726</v>
       </c>
       <c r="X44" t="n">
-        <v>1225.312905490111</v>
+        <v>1654.657193500726</v>
       </c>
       <c r="Y44" t="n">
-        <v>1225.312905490111</v>
+        <v>1264.517861524914</v>
       </c>
     </row>
     <row r="45">
@@ -7703,31 +7703,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>753.3352152728653</v>
+        <v>916.1844136788742</v>
       </c>
       <c r="C45" t="n">
-        <v>578.8821859917383</v>
+        <v>741.7313843977472</v>
       </c>
       <c r="D45" t="n">
-        <v>454.8868616827621</v>
+        <v>592.7969747364959</v>
       </c>
       <c r="E45" t="n">
-        <v>295.6494066773066</v>
+        <v>433.5595197310405</v>
       </c>
       <c r="F45" t="n">
-        <v>149.1148487041915</v>
+        <v>287.0249617579254</v>
       </c>
       <c r="G45" t="n">
-        <v>149.1148487041915</v>
+        <v>149.1148487041916</v>
       </c>
       <c r="H45" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="I45" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="J45" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="K45" t="n">
         <v>298.9193871702319</v>
@@ -7736,43 +7736,43 @@
         <v>703.5353052659038</v>
       </c>
       <c r="M45" t="n">
-        <v>1155.972030456466</v>
+        <v>1155.972030456467</v>
       </c>
       <c r="N45" t="n">
-        <v>1235.1496159559</v>
+        <v>1235.149615955901</v>
       </c>
       <c r="O45" t="n">
         <v>1675.285538976244</v>
       </c>
       <c r="P45" t="n">
-        <v>2011.530352591072</v>
+        <v>2011.530352591073</v>
       </c>
       <c r="Q45" t="n">
-        <v>2183.603336456669</v>
+        <v>2183.60333645667</v>
       </c>
       <c r="R45" t="n">
-        <v>2183.603336456669</v>
+        <v>2183.60333645667</v>
       </c>
       <c r="S45" t="n">
-        <v>2025.430364100585</v>
+        <v>2025.430364100586</v>
       </c>
       <c r="T45" t="n">
-        <v>1826.551816223364</v>
+        <v>2025.430364100586</v>
       </c>
       <c r="U45" t="n">
-        <v>1826.551816223364</v>
+        <v>1797.260740071426</v>
       </c>
       <c r="V45" t="n">
-        <v>1591.399707991622</v>
+        <v>1562.108631839683</v>
       </c>
       <c r="W45" t="n">
-        <v>1337.16235126342</v>
+        <v>1307.871275111482</v>
       </c>
       <c r="X45" t="n">
-        <v>1129.310851057887</v>
+        <v>1292.160049463896</v>
       </c>
       <c r="Y45" t="n">
-        <v>921.5505522929334</v>
+        <v>1084.399750698942</v>
       </c>
     </row>
     <row r="46">
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>340.6786536393795</v>
+        <v>276.2614586019677</v>
       </c>
       <c r="C46" t="n">
-        <v>340.6786536393795</v>
+        <v>276.2614586019677</v>
       </c>
       <c r="D46" t="n">
-        <v>190.5620142270437</v>
+        <v>276.2614586019677</v>
       </c>
       <c r="E46" t="n">
-        <v>190.5620142270437</v>
+        <v>276.2614586019677</v>
       </c>
       <c r="F46" t="n">
-        <v>43.67206672913338</v>
+        <v>276.2614586019677</v>
       </c>
       <c r="G46" t="n">
-        <v>43.67206672913338</v>
+        <v>201.4204392966033</v>
       </c>
       <c r="H46" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="I46" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="J46" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913341</v>
       </c>
       <c r="K46" t="n">
-        <v>99.97425979540151</v>
+        <v>99.97425979540154</v>
       </c>
       <c r="L46" t="n">
         <v>227.5481173565599</v>
       </c>
       <c r="M46" t="n">
-        <v>372.4459860745898</v>
+        <v>372.4459860745899</v>
       </c>
       <c r="N46" t="n">
         <v>519.3331237590189</v>
@@ -7830,28 +7830,28 @@
         <v>717.8580691152032</v>
       </c>
       <c r="R46" t="n">
-        <v>569.7114105493872</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="S46" t="n">
-        <v>569.7114105493872</v>
+        <v>503.5696459333659</v>
       </c>
       <c r="T46" t="n">
-        <v>342.403223217989</v>
+        <v>276.2614586019677</v>
       </c>
       <c r="U46" t="n">
-        <v>342.403223217989</v>
+        <v>276.2614586019677</v>
       </c>
       <c r="V46" t="n">
-        <v>342.403223217989</v>
+        <v>276.2614586019677</v>
       </c>
       <c r="W46" t="n">
-        <v>340.6786536393795</v>
+        <v>276.2614586019677</v>
       </c>
       <c r="X46" t="n">
-        <v>340.6786536393795</v>
+        <v>276.2614586019677</v>
       </c>
       <c r="Y46" t="n">
-        <v>340.6786536393795</v>
+        <v>276.2614586019677</v>
       </c>
     </row>
   </sheetData>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>358.8163243358881</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8710,7 +8710,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.4701004453419</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>192.0307033080662</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>245.4104498145096</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>378.5020341974215</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>250.787208876072</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>222.3884758412395</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>393.2705300454874</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9175,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.9065542451752</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9485,13 +9485,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>251.4045252050812</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>327.4218609627881</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9962,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10199,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10366,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10442,10 +10442,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360587</v>
       </c>
       <c r="P33" t="n">
-        <v>275.044284299266</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>52.15938665394273</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11077,10 +11077,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>262.9538179569196</v>
+        <v>84.37501927208761</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>58.3174843700358</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
-        <v>116.0133675503584</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>393.2705300454874</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11299,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>26.92237113682285</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>238.3781512197786</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>321.9552910481832</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11384,7 +11384,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>393.2705300454866</v>
+        <v>393.2705300454875</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>90.41670165968208</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>120.1741808813922</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23342,22 +23342,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>13.74652076527403</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.120055738928642</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23396,10 +23396,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23466,13 +23466,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>56.2595003824851</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>85.19271039829701</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>349.4397621988469</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -23557,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>288.5034113866215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>39.19462946772869</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.8778632396178</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>130.3958356744439</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>1.88527183700711</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23740,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>295.6712634489317</v>
+        <v>140.019385215509</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23940,13 +23940,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>56.01837628787186</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>144.0616304531437</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>100.0922790130446</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>46.53378145641341</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>130.7626639532037</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,28 +24174,28 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>229.5548768001848</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>51.3549212981539</v>
+        <v>172.995518949604</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>9.58682388307011</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>45.19995918853701</v>
@@ -24420,19 +24420,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24460,10 +24460,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>8.179145750737575</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>14.91097062400439</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923383</v>
@@ -24654,22 +24654,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>100.330857479769</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>2.974660358414894</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>107.7994168684434</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>3.866209516361209</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24888,19 +24888,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>260.6788285737787</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>226.1801772065952</v>
       </c>
     </row>
     <row r="33">
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25125,19 +25125,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>244.4003798878512</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>228.0024656274833</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>137.9093583789965</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25362,13 +25362,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>91.73350314005432</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>318.3669783706423</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>134.857120541226</v>
       </c>
     </row>
     <row r="39">
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>55.37228994299372</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>45.19995918853701</v>
@@ -25596,13 +25596,13 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>161.4583240119908</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>49.08414739864666</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>106.0517673126998</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25715,7 +25715,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>9.307090655412964</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>61.42221998250819</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>24.74440637481609</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>4.910330425104576</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,7 +25833,7 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25845,16 +25845,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>103.502310977383</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>275.9828082796096</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>184.6974717062622</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25949,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>24.68969449875227</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25958,7 +25958,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25997,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>190.2188718123676</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>93.21719314674016</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923383</v>
@@ -26070,10 +26070,10 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>284.8156744537676</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>618146.6731592277</v>
+        <v>618146.6731592281</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>618146.6731592279</v>
+        <v>618146.6731592281</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>699057.7649559247</v>
+        <v>699057.7649559248</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>699057.7649559246</v>
+        <v>699057.7649559247</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>699057.7649559246</v>
+        <v>699057.7649559247</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>618146.6731592277</v>
+        <v>618146.6731592278</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>618146.6731592278</v>
+        <v>618146.6731592281</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>593975.3455698527</v>
       </c>
       <c r="D2" t="n">
-        <v>593975.3455698526</v>
+        <v>593975.3455698527</v>
       </c>
       <c r="E2" t="n">
-        <v>375201.7715672097</v>
+        <v>375201.7715672098</v>
       </c>
       <c r="F2" t="n">
-        <v>375201.7715672098</v>
+        <v>375201.7715672099</v>
       </c>
       <c r="G2" t="n">
-        <v>419271.2845228482</v>
+        <v>419271.2845228483</v>
       </c>
       <c r="H2" t="n">
-        <v>419271.2845228481</v>
+        <v>419271.2845228484</v>
       </c>
       <c r="I2" t="n">
         <v>419271.2845228481</v>
       </c>
       <c r="J2" t="n">
-        <v>419271.2845228482</v>
+        <v>419271.2845228481</v>
       </c>
       <c r="K2" t="n">
-        <v>419271.2845228481</v>
+        <v>419271.2845228483</v>
       </c>
       <c r="L2" t="n">
-        <v>419271.2845228481</v>
+        <v>419271.2845228483</v>
       </c>
       <c r="M2" t="n">
-        <v>419271.2845228482</v>
+        <v>419271.2845228483</v>
       </c>
       <c r="N2" t="n">
         <v>419271.2845228481</v>
       </c>
       <c r="O2" t="n">
+        <v>375201.7715672098</v>
+      </c>
+      <c r="P2" t="n">
         <v>375201.7715672099</v>
-      </c>
-      <c r="P2" t="n">
-        <v>375201.7715672098</v>
       </c>
     </row>
     <row r="3">
@@ -26426,7 +26426,7 @@
         <v>409397.0283363865</v>
       </c>
       <c r="E4" t="n">
-        <v>88109.07502345192</v>
+        <v>88109.07502345195</v>
       </c>
       <c r="F4" t="n">
         <v>88109.07502345194</v>
@@ -26444,7 +26444,7 @@
         <v>106808.022922681</v>
       </c>
       <c r="K4" t="n">
-        <v>106808.022922681</v>
+        <v>106808.0229226811</v>
       </c>
       <c r="L4" t="n">
         <v>106808.022922681</v>
@@ -26456,10 +26456,10 @@
         <v>106808.022922681</v>
       </c>
       <c r="O4" t="n">
-        <v>88109.07502345191</v>
+        <v>88109.07502345194</v>
       </c>
       <c r="P4" t="n">
-        <v>88109.07502345191</v>
+        <v>88109.07502345195</v>
       </c>
     </row>
     <row r="5">
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>41425.58259407386</v>
+        <v>41425.58259407387</v>
       </c>
       <c r="P5" t="n">
-        <v>41425.58259407386</v>
+        <v>41425.58259407387</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150906.581454785</v>
+        <v>150946.303655598</v>
       </c>
       <c r="C6" t="n">
-        <v>150906.5814547851</v>
+        <v>150946.3036555981</v>
       </c>
       <c r="D6" t="n">
-        <v>150906.581454785</v>
+        <v>150946.3036555981</v>
       </c>
       <c r="E6" t="n">
-        <v>-228395.3104850558</v>
+        <v>-221566.0635738159</v>
       </c>
       <c r="F6" t="n">
-        <v>238079.0618260842</v>
+        <v>244908.3087373241</v>
       </c>
       <c r="G6" t="n">
-        <v>221974.5727561877</v>
+        <v>227436.1451274251</v>
       </c>
       <c r="H6" t="n">
-        <v>257163.3697909385</v>
+        <v>262624.942162176</v>
       </c>
       <c r="I6" t="n">
-        <v>257163.3697909385</v>
+        <v>262624.9421621757</v>
       </c>
       <c r="J6" t="n">
-        <v>257163.3697909385</v>
+        <v>262624.9421621757</v>
       </c>
       <c r="K6" t="n">
-        <v>257163.3697909384</v>
+        <v>262624.9421621759</v>
       </c>
       <c r="L6" t="n">
-        <v>257163.3697909384</v>
+        <v>262624.9421621758</v>
       </c>
       <c r="M6" t="n">
-        <v>121122.6983263515</v>
+        <v>126584.2706975888</v>
       </c>
       <c r="N6" t="n">
-        <v>257163.3697909384</v>
+        <v>262624.9421621757</v>
       </c>
       <c r="O6" t="n">
-        <v>238079.0618260842</v>
+        <v>244908.308737324</v>
       </c>
       <c r="P6" t="n">
-        <v>238079.0618260842</v>
+        <v>244908.3087373241</v>
       </c>
     </row>
   </sheetData>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>545.9008341141674</v>
+        <v>545.9008341141675</v>
       </c>
       <c r="F4" t="n">
-        <v>545.9008341141674</v>
+        <v>545.9008341141675</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>545.9008341141673</v>
+        <v>545.9008341141675</v>
       </c>
       <c r="P4" t="n">
-        <v>545.9008341141673</v>
+        <v>545.9008341141675</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>545.9008341141674</v>
+        <v>545.9008341141675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>545.9008341141674</v>
+        <v>545.9008341141675</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>362.6912492289678</v>
       </c>
       <c r="M11" t="n">
         <v>36.30093131326393</v>
@@ -35430,7 +35430,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.15261607530606</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>185.3910424986174</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35503,7 +35503,7 @@
         <v>79.97735909033668</v>
       </c>
       <c r="O12" t="n">
-        <v>296.1298709623698</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
@@ -35655,7 +35655,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>414.8029655106854</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
         <v>41.54873083723948</v>
@@ -35664,7 +35664,7 @@
         <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>237.9261170162691</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>260.251078109166</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>63.73626307629385</v>
       </c>
       <c r="N15" t="n">
-        <v>79.97735909033668</v>
+        <v>473.247889135824</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245897</v>
@@ -35895,7 +35895,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530451</v>
@@ -35974,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355119</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245897</v>
@@ -36129,7 +36129,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N20" t="n">
         <v>478.8956552492236</v>
@@ -36205,13 +36205,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245897</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>365.2844632307146</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338902</v>
@@ -36682,7 +36682,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L29" t="n">
         <v>421.5361394435301</v>
@@ -36919,10 +36919,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245897</v>
@@ -37086,7 +37086,7 @@
         <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37162,10 +37162,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P33" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37387,7 +37387,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245897</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245897</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37788,7 +37788,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>36.30093131326393</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
         <v>478.8956552492236</v>
@@ -37797,10 +37797,10 @@
         <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>250.0927260971166</v>
+        <v>71.5139274122847</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>109.3737067409096</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>63.73626307629385</v>
       </c>
       <c r="N42" t="n">
-        <v>79.97735909033668</v>
+        <v>473.247889135824</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245897</v>
@@ -38019,19 +38019,19 @@
         <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
         <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>274.6790825330426</v>
+        <v>36.30093131326393</v>
       </c>
       <c r="N44" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>347.718618538483</v>
       </c>
       <c r="P44" t="n">
         <v>308.9376163116797</v>
@@ -38104,7 +38104,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>457.0067931217804</v>
+        <v>457.0067931217813</v>
       </c>
       <c r="N45" t="n">
         <v>79.97735909033668</v>
